--- a/tests/frameworks/framework_sir_dynamic.xlsx
+++ b/tests/frameworks/framework_sir_dynamic.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C335F3-BC47-472C-9230-75AF88FDD611}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="5" r:id="rId1"/>
@@ -20,17 +19,17 @@
     <sheet name="Parameters" sheetId="4" r:id="rId5"/>
     <sheet name="Cascades" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A933BB2F-BD44-4AA3-9747-9EE271A8A43E}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C9FAE90-07ED-44EF-9D3B-D0E0456BD991}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,12 +73,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3881AE7E-FAB1-4967-BFF9-35EC5F9DF654}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,12 +241,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CC0CB859-3F5D-43C9-94B0-27F5CB43D565}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A1CB8378-C4D4-4895-97A1-EAB67B145FFE}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,12 +397,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -425,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{65E32CD1-EF29-4034-8FD9-2B2CA808AD0D}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,23 +895,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -948,23 +930,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1140,19 +1105,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158C4163-0781-4E11-A6B9-0912B33A6E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1160,7 +1125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -1168,7 +1133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -1176,35 +1141,35 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1215,20 +1180,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.83984375" customWidth="1"/>
+    <col min="2" max="7" width="15.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1216,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -1266,7 +1231,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1246,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1259,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1328,7 +1293,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E6" xr:uid="{EB410747-7D07-4683-B8BD-9F706D62D425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:E6">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1339,20 +1304,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.15625" style="2"/>
+    <col min="6" max="6" width="17.41796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1373,7 +1338,7 @@
         <v>dead</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -1384,7 +1349,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="str">
         <f>Compartments!A3</f>
         <v>sus</v>
@@ -1397,7 +1362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="str">
         <f>Compartments!A4</f>
         <v>inf</v>
@@ -1410,7 +1375,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="str">
         <f>Compartments!A5</f>
         <v>rec</v>
@@ -1420,7 +1385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="str">
         <f>Compartments!A6</f>
         <v>dead</v>
@@ -1433,25 +1398,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.68359375" customWidth="1"/>
+    <col min="4" max="5" width="20.68359375" customWidth="1"/>
+    <col min="6" max="6" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +1460,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -1515,7 +1480,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1500,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1551,7 +1516,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1567,7 +1532,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1585,7 +1550,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1603,7 +1568,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1628,24 +1593,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -1683,7 +1648,7 @@
       </c>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1701,7 +1666,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -1719,45 +1684,48 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E6">
-        <v>0.5</v>
+      <c r="E6" s="8">
+        <v>1.6E-2</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1766,27 +1734,24 @@
         <v>62</v>
       </c>
       <c r="E7" s="8">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1796,20 +1761,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94509DB-A1F5-4668-BF8F-11287B88AAAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>65</v>
       </c>
@@ -1817,7 +1782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1825,7 +1790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1833,7 +1798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
